--- a/team_specific_matrix/Milwaukee_B.xlsx
+++ b/team_specific_matrix/Milwaukee_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1538461538461539</v>
+        <v>0.1704180064308682</v>
       </c>
       <c r="C2">
-        <v>0.6581196581196581</v>
+        <v>0.6205787781350482</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0170940170940171</v>
+        <v>0.022508038585209</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.09829059829059829</v>
+        <v>0.1061093247588424</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07264957264957266</v>
+        <v>0.08038585209003216</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01886792452830189</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="C3">
-        <v>0.03144654088050314</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01886792452830189</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8050314465408805</v>
+        <v>0.7868020304568528</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1257861635220126</v>
+        <v>0.1370558375634518</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7878787878787878</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2121212121212121</v>
+        <v>0.2325581395348837</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07738095238095238</v>
+        <v>0.07207207207207207</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005952380952380952</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04166666666666666</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04761904761904762</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666667</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="R6">
-        <v>0.1130952380952381</v>
+        <v>0.0990990990990991</v>
       </c>
       <c r="S6">
-        <v>0.2976190476190476</v>
+        <v>0.3018018018018018</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.125</v>
+        <v>0.115</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01973684210526316</v>
+        <v>0.015</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05921052631578947</v>
+        <v>0.075</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01973684210526316</v>
+        <v>0.015</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1907894736842105</v>
+        <v>0.18</v>
       </c>
       <c r="R7">
-        <v>0.06578947368421052</v>
+        <v>0.06</v>
       </c>
       <c r="S7">
-        <v>0.3947368421052632</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1208791208791209</v>
+        <v>0.1271929824561404</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02197802197802198</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0467032967032967</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1510989010989011</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01098901098901099</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1675824175824176</v>
+        <v>0.1732456140350877</v>
       </c>
       <c r="R8">
-        <v>0.1071428571428571</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S8">
-        <v>0.3736263736263736</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08284023668639054</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08875739644970414</v>
+        <v>0.07555555555555556</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.106508875739645</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01183431952662722</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2011834319526627</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.07692307692307693</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="S9">
-        <v>0.4319526627218935</v>
+        <v>0.4044444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.100597609561753</v>
+        <v>0.09817351598173515</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02191235059760956</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="E10">
-        <v>0.00199203187250996</v>
+        <v>0.0015220700152207</v>
       </c>
       <c r="F10">
-        <v>0.0647410358565737</v>
+        <v>0.0669710806697108</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1424302788844622</v>
+        <v>0.1415525114155251</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01294820717131474</v>
+        <v>0.0106544901065449</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2051792828685259</v>
+        <v>0.2039573820395738</v>
       </c>
       <c r="R10">
-        <v>0.08964143426294821</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="S10">
-        <v>0.3605577689243028</v>
+        <v>0.3675799086757991</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1239316239316239</v>
+        <v>0.1237785016286645</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07264957264957266</v>
+        <v>0.07166123778501629</v>
       </c>
       <c r="K11">
-        <v>0.1666666666666667</v>
+        <v>0.1693811074918567</v>
       </c>
       <c r="L11">
-        <v>0.594017094017094</v>
+        <v>0.5960912052117264</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04273504273504274</v>
+        <v>0.03908794788273615</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6712328767123288</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2328767123287671</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K12">
-        <v>0.0136986301369863</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="L12">
-        <v>0.03424657534246575</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04794520547945205</v>
+        <v>0.0582010582010582</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6829268292682927</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2682926829268293</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04878048780487805</v>
+        <v>0.07843137254901961</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02247191011235955</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1629213483146068</v>
+        <v>0.1576576576576577</v>
       </c>
       <c r="I15">
-        <v>0.07303370786516854</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="J15">
-        <v>0.3707865168539326</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="K15">
-        <v>0.03932584269662921</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02247191011235955</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05617977528089887</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.252808988764045</v>
+        <v>0.2387387387387387</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02312138728323699</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1676300578034682</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="I16">
-        <v>0.09248554913294797</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="J16">
-        <v>0.3352601156069364</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="K16">
-        <v>0.09248554913294797</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02312138728323699</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06936416184971098</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1965317919075145</v>
+        <v>0.1898148148148148</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01977401129943503</v>
+        <v>0.01956521739130435</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2005649717514124</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="I17">
-        <v>0.1101694915254237</v>
+        <v>0.1130434782608696</v>
       </c>
       <c r="J17">
-        <v>0.3954802259887006</v>
+        <v>0.4</v>
       </c>
       <c r="K17">
-        <v>0.07627118644067797</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01694915254237288</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="N17">
-        <v>0.002824858757062147</v>
+        <v>0.002173913043478261</v>
       </c>
       <c r="O17">
-        <v>0.03954802259887006</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1384180790960452</v>
+        <v>0.1478260869565217</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01754385964912281</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1695906432748538</v>
+        <v>0.1598173515981735</v>
       </c>
       <c r="I18">
-        <v>0.1111111111111111</v>
+        <v>0.1141552511415525</v>
       </c>
       <c r="J18">
-        <v>0.4093567251461988</v>
+        <v>0.4063926940639269</v>
       </c>
       <c r="K18">
-        <v>0.09941520467836257</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01169590643274854</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08187134502923976</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09941520467836257</v>
+        <v>0.1187214611872146</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01485148514851485</v>
+        <v>0.01341281669150522</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2089108910891089</v>
+        <v>0.2004470938897168</v>
       </c>
       <c r="I19">
-        <v>0.07920792079207921</v>
+        <v>0.08122205663189269</v>
       </c>
       <c r="J19">
-        <v>0.3396039603960396</v>
+        <v>0.3450074515648286</v>
       </c>
       <c r="K19">
-        <v>0.1217821782178218</v>
+        <v>0.1207153502235469</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02475247524752475</v>
+        <v>0.02309985096870343</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07722772277227723</v>
+        <v>0.07451564828614009</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1336633663366337</v>
+        <v>0.1415797317436662</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Milwaukee_B.xlsx
+++ b/team_specific_matrix/Milwaukee_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1704180064308682</v>
+        <v>0.1783625730994152</v>
       </c>
       <c r="C2">
-        <v>0.6205787781350482</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.022508038585209</v>
+        <v>0.02046783625730994</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1061093247588424</v>
+        <v>0.1198830409356725</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08038585209003216</v>
+        <v>0.07602339181286549</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02030456852791878</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="C3">
-        <v>0.02538071065989848</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03045685279187817</v>
+        <v>0.04739336492890995</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7868020304568528</v>
+        <v>0.7725118483412322</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1370558375634518</v>
+        <v>0.1374407582938389</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7674418604651163</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2325581395348837</v>
+        <v>0.2040816326530612</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07207207207207207</v>
+        <v>0.07203389830508475</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009009009009009009</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04954954954954955</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2522522522522522</v>
+        <v>0.2584745762711864</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04054054054054054</v>
+        <v>0.03813559322033899</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1756756756756757</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="R6">
-        <v>0.0990990990990991</v>
+        <v>0.09745762711864407</v>
       </c>
       <c r="S6">
-        <v>0.3018018018018018</v>
+        <v>0.3050847457627119</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.115</v>
+        <v>0.1121076233183857</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.015</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.075</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.12</v>
+        <v>0.1121076233183857</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.015</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.18</v>
+        <v>0.1883408071748879</v>
       </c>
       <c r="R7">
-        <v>0.06</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="S7">
-        <v>0.42</v>
+        <v>0.42152466367713</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1271929824561404</v>
+        <v>0.1303462321792261</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01973684210526316</v>
+        <v>0.02036659877800407</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05263157894736842</v>
+        <v>0.05295315682281059</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1403508771929824</v>
+        <v>0.1323828920570265</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0131578947368421</v>
+        <v>0.01221995926680244</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1732456140350877</v>
+        <v>0.175152749490835</v>
       </c>
       <c r="R8">
-        <v>0.1052631578947368</v>
+        <v>0.1038696537678208</v>
       </c>
       <c r="S8">
-        <v>0.3684210526315789</v>
+        <v>0.3727087576374745</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09333333333333334</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01333333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07555555555555556</v>
+        <v>0.075</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1111111111111111</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01333333333333333</v>
+        <v>0.0125</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2</v>
+        <v>0.1958333333333333</v>
       </c>
       <c r="R9">
-        <v>0.08888888888888889</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="S9">
-        <v>0.4044444444444444</v>
+        <v>0.4083333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09817351598173515</v>
+        <v>0.09899569583931134</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02054794520547945</v>
+        <v>0.02152080344332855</v>
       </c>
       <c r="E10">
-        <v>0.0015220700152207</v>
+        <v>0.001434720229555237</v>
       </c>
       <c r="F10">
-        <v>0.0669710806697108</v>
+        <v>0.06527977044476327</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1415525114155251</v>
+        <v>0.1427546628407461</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0106544901065449</v>
+        <v>0.01076040172166428</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2039573820395738</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="R10">
-        <v>0.08904109589041095</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="S10">
-        <v>0.3675799086757991</v>
+        <v>0.3651362984218077</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1237785016286645</v>
+        <v>0.1264705882352941</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07166123778501629</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="K11">
-        <v>0.1693811074918567</v>
+        <v>0.1705882352941177</v>
       </c>
       <c r="L11">
-        <v>0.5960912052117264</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03908794788273615</v>
+        <v>0.03823529411764706</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6825396825396826</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2222222222222222</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K12">
-        <v>0.01058201058201058</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="L12">
-        <v>0.02645502645502645</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0582010582010582</v>
+        <v>0.05314009661835749</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6862745098039216</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2352941176470588</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07843137254901961</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02252252252252252</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1576576576576577</v>
+        <v>0.1574468085106383</v>
       </c>
       <c r="I15">
-        <v>0.08108108108108109</v>
+        <v>0.09361702127659574</v>
       </c>
       <c r="J15">
-        <v>0.3693693693693694</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="K15">
-        <v>0.05405405405405406</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01801801801801802</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05855855855855856</v>
+        <v>0.05957446808510639</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2387387387387387</v>
+        <v>0.2297872340425532</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02314814814814815</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1759259259259259</v>
+        <v>0.1848739495798319</v>
       </c>
       <c r="I16">
-        <v>0.08796296296296297</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="J16">
-        <v>0.3425925925925926</v>
+        <v>0.3361344537815126</v>
       </c>
       <c r="K16">
-        <v>0.09259259259259259</v>
+        <v>0.09663865546218488</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02777777777777778</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06018518518518518</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1898148148148148</v>
+        <v>0.1848739495798319</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01956521739130435</v>
+        <v>0.02024291497975709</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1869565217391304</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="I17">
-        <v>0.1130434782608696</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J17">
-        <v>0.4</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="K17">
-        <v>0.07391304347826087</v>
+        <v>0.08097165991902834</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01739130434782609</v>
+        <v>0.02024291497975709</v>
       </c>
       <c r="N17">
-        <v>0.002173913043478261</v>
+        <v>0.002024291497975709</v>
       </c>
       <c r="O17">
-        <v>0.0391304347826087</v>
+        <v>0.04048582995951417</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1478260869565217</v>
+        <v>0.1518218623481781</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0182648401826484</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1598173515981735</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="I18">
-        <v>0.1141552511415525</v>
+        <v>0.1125541125541126</v>
       </c>
       <c r="J18">
-        <v>0.4063926940639269</v>
+        <v>0.4069264069264069</v>
       </c>
       <c r="K18">
-        <v>0.0958904109589041</v>
+        <v>0.09956709956709957</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0136986301369863</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0730593607305936</v>
+        <v>0.06926406926406926</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1187214611872146</v>
+        <v>0.1125541125541126</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01341281669150522</v>
+        <v>0.01400560224089636</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2004470938897168</v>
+        <v>0.2002801120448179</v>
       </c>
       <c r="I19">
-        <v>0.08122205663189269</v>
+        <v>0.0819327731092437</v>
       </c>
       <c r="J19">
-        <v>0.3450074515648286</v>
+        <v>0.342436974789916</v>
       </c>
       <c r="K19">
-        <v>0.1207153502235469</v>
+        <v>0.1239495798319328</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02309985096870343</v>
+        <v>0.02310924369747899</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0007002801120448179</v>
       </c>
       <c r="O19">
-        <v>0.07451564828614009</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1415797317436662</v>
+        <v>0.1400560224089636</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Milwaukee_B.xlsx
+++ b/team_specific_matrix/Milwaukee_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1783625730994152</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C2">
-        <v>0.6052631578947368</v>
+        <v>0.6011396011396012</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02046783625730994</v>
+        <v>0.01994301994301994</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1198830409356725</v>
+        <v>0.1225071225071225</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07602339181286549</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01895734597156398</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="C3">
-        <v>0.02369668246445497</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04739336492890995</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7725118483412322</v>
+        <v>0.772093023255814</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1374407582938389</v>
+        <v>0.1395348837209302</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7959183673469388</v>
+        <v>0.78</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2040816326530612</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07203389830508475</v>
+        <v>0.07024793388429752</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008474576271186441</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05084745762711865</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2584745762711864</v>
+        <v>0.256198347107438</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03813559322033899</v>
+        <v>0.0371900826446281</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1694915254237288</v>
+        <v>0.1694214876033058</v>
       </c>
       <c r="R6">
-        <v>0.09745762711864407</v>
+        <v>0.09917355371900827</v>
       </c>
       <c r="S6">
-        <v>0.3050847457627119</v>
+        <v>0.3099173553719008</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1121076233183857</v>
+        <v>0.1106382978723404</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0179372197309417</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07174887892376682</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1121076233183857</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0179372197309417</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1883408071748879</v>
+        <v>0.1787234042553192</v>
       </c>
       <c r="R7">
-        <v>0.05829596412556054</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="S7">
-        <v>0.42152466367713</v>
+        <v>0.4425531914893617</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1303462321792261</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02036659877800407</v>
+        <v>0.02156862745098039</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05295315682281059</v>
+        <v>0.05098039215686274</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1323828920570265</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01221995926680244</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.175152749490835</v>
+        <v>0.1725490196078431</v>
       </c>
       <c r="R8">
-        <v>0.1038696537678208</v>
+        <v>0.103921568627451</v>
       </c>
       <c r="S8">
-        <v>0.3727087576374745</v>
+        <v>0.3764705882352941</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.075</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1041666666666667</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0125</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1958333333333333</v>
+        <v>0.1975806451612903</v>
       </c>
       <c r="R9">
-        <v>0.08749999999999999</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="S9">
-        <v>0.4083333333333333</v>
+        <v>0.4032258064516129</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09899569583931134</v>
+        <v>0.09817671809256662</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02152080344332855</v>
+        <v>0.02103786816269285</v>
       </c>
       <c r="E10">
-        <v>0.001434720229555237</v>
+        <v>0.001402524544179523</v>
       </c>
       <c r="F10">
-        <v>0.06527977044476327</v>
+        <v>0.06591865357643759</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1427546628407461</v>
+        <v>0.1416549789621318</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01076040172166428</v>
+        <v>0.01122019635343618</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2058823529411765</v>
+        <v>0.2047685834502104</v>
       </c>
       <c r="R10">
-        <v>0.08823529411764706</v>
+        <v>0.09046283309957924</v>
       </c>
       <c r="S10">
-        <v>0.3651362984218077</v>
+        <v>0.3653576437587658</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1264705882352941</v>
+        <v>0.1327683615819209</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07352941176470588</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="K11">
-        <v>0.1705882352941177</v>
+        <v>0.172316384180791</v>
       </c>
       <c r="L11">
-        <v>0.5911764705882353</v>
+        <v>0.5847457627118644</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03823529411764706</v>
+        <v>0.03672316384180791</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6956521739130435</v>
+        <v>0.6995305164319249</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2173913043478261</v>
+        <v>0.215962441314554</v>
       </c>
       <c r="K12">
-        <v>0.00966183574879227</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="L12">
-        <v>0.02415458937198068</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05314009661835749</v>
+        <v>0.05164319248826291</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2142857142857143</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.06779661016949153</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02553191489361702</v>
+        <v>0.025</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1574468085106383</v>
+        <v>0.1541666666666667</v>
       </c>
       <c r="I15">
-        <v>0.09361702127659574</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="J15">
-        <v>0.3617021276595745</v>
+        <v>0.3625</v>
       </c>
       <c r="K15">
-        <v>0.05531914893617021</v>
+        <v>0.05416666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01702127659574468</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05957446808510639</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2297872340425532</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02100840336134454</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1848739495798319</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I16">
-        <v>0.08823529411764706</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0.3361344537815126</v>
+        <v>0.3429752066115703</v>
       </c>
       <c r="K16">
-        <v>0.09663865546218488</v>
+        <v>0.09504132231404959</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02941176470588235</v>
+        <v>0.02892561983471074</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05882352941176471</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1848739495798319</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02024291497975709</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1842105263157895</v>
+        <v>0.1861386138613861</v>
       </c>
       <c r="I17">
-        <v>0.1052631578947368</v>
+        <v>0.1069306930693069</v>
       </c>
       <c r="J17">
-        <v>0.3947368421052632</v>
+        <v>0.3920792079207921</v>
       </c>
       <c r="K17">
-        <v>0.08097165991902834</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02024291497975709</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="N17">
-        <v>0.002024291497975709</v>
+        <v>0.00198019801980198</v>
       </c>
       <c r="O17">
-        <v>0.04048582995951417</v>
+        <v>0.04158415841584159</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1518218623481781</v>
+        <v>0.1524752475247525</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01731601731601732</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1688311688311688</v>
+        <v>0.168724279835391</v>
       </c>
       <c r="I18">
-        <v>0.1125541125541126</v>
+        <v>0.1069958847736626</v>
       </c>
       <c r="J18">
-        <v>0.4069264069264069</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="K18">
-        <v>0.09956709956709957</v>
+        <v>0.1069958847736626</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01298701298701299</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06926406926406926</v>
+        <v>0.06584362139917696</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1125541125541126</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01400560224089636</v>
+        <v>0.01345895020188425</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2002801120448179</v>
+        <v>0.2032301480484522</v>
       </c>
       <c r="I19">
-        <v>0.0819327731092437</v>
+        <v>0.08209959623149395</v>
       </c>
       <c r="J19">
-        <v>0.342436974789916</v>
+        <v>0.3391655450874832</v>
       </c>
       <c r="K19">
-        <v>0.1239495798319328</v>
+        <v>0.1238223418573351</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02310924369747899</v>
+        <v>0.02422611036339166</v>
       </c>
       <c r="N19">
-        <v>0.0007002801120448179</v>
+        <v>0.0006729475100942127</v>
       </c>
       <c r="O19">
-        <v>0.07352941176470588</v>
+        <v>0.07200538358008075</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1400560224089636</v>
+        <v>0.1413189771197847</v>
       </c>
     </row>
   </sheetData>
